--- a/documentation/SKAZ_DB_maps.xlsx
+++ b/documentation/SKAZ_DB_maps.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/06f113a1f573cf4f/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/06f113a1f573cf4f/Documents/GitHub/AA1/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="577" documentId="8_{04B64F91-40C6-411C-8FC6-A81B4327CA50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{EBA82360-8DA0-4702-AED1-E230037F7D43}"/>
+  <xr:revisionPtr revIDLastSave="578" documentId="8_{04B64F91-40C6-411C-8FC6-A81B4327CA50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{245196EB-9258-401B-915C-3222EB23865C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A18279E6-D1D1-42AF-9792-7BCFB476BF08}"/>
+    <workbookView xWindow="44700" yWindow="2550" windowWidth="11820" windowHeight="10290" activeTab="1" xr2:uid="{A18279E6-D1D1-42AF-9792-7BCFB476BF08}"/>
   </bookViews>
   <sheets>
     <sheet name="master_stories" sheetId="1" r:id="rId1"/>
@@ -749,14 +749,14 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1094,11 +1094,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -1327,8 +1327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB1ABD2-7E29-4031-87F9-5C48D3FF4383}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1340,11 +1340,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -1429,7 +1429,7 @@
         <v>72</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1516,7 +1516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83736C7-2185-4E5D-AF56-E8CDCB0D75AE}">
   <dimension ref="A2:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -1594,11 +1594,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -1662,11 +1662,11 @@
   <sheetFormatPr defaultColWidth="28.140625" defaultRowHeight="51" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -1799,11 +1799,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -2034,11 +2034,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -2129,13 +2129,13 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="18" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2214,11 +2214,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -2338,11 +2338,11 @@
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">

--- a/documentation/SKAZ_DB_maps.xlsx
+++ b/documentation/SKAZ_DB_maps.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/06f113a1f573cf4f/Documents/GitHub/AA1/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\AA1\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="578" documentId="8_{04B64F91-40C6-411C-8FC6-A81B4327CA50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{245196EB-9258-401B-915C-3222EB23865C}"/>
   <bookViews>
-    <workbookView xWindow="44700" yWindow="2550" windowWidth="11820" windowHeight="10290" activeTab="1" xr2:uid="{A18279E6-D1D1-42AF-9792-7BCFB476BF08}"/>
+    <workbookView xWindow="0" yWindow="2556" windowWidth="11820" windowHeight="10296"/>
   </bookViews>
   <sheets>
     <sheet name="master_stories" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <sheet name="objects" sheetId="4" r:id="rId8"/>
     <sheet name="events" sheetId="5" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -308,9 +307,6 @@
     <t>story_price</t>
   </si>
   <si>
-    <t>story_verified</t>
-  </si>
-  <si>
     <t>verification_status</t>
   </si>
   <si>
@@ -592,12 +588,15 @@
   </si>
   <si>
     <t>audio_code</t>
+  </si>
+  <si>
+    <t>story_in_store</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1073,34 +1072,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8D3279-6F08-4C99-88A6-720866431B12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="25.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="39.109375" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1111,7 +1110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1155,7 +1154,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>88</v>
       </c>
@@ -1177,7 +1176,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>84</v>
       </c>
@@ -1188,7 +1187,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
@@ -1199,7 +1198,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>46</v>
       </c>
@@ -1210,7 +1209,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>43</v>
       </c>
@@ -1221,9 +1220,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>3</v>
@@ -1232,9 +1231,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>45</v>
@@ -1243,7 +1242,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
@@ -1254,18 +1253,18 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>47</v>
       </c>
@@ -1276,9 +1275,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>4</v>
@@ -1287,7 +1286,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>55</v>
       </c>
@@ -1298,17 +1297,17 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>3</v>
@@ -1324,29 +1323,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB1ABD2-7E29-4031-87F9-5C48D3FF4383}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="38.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1357,7 +1356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>66</v>
       </c>
@@ -1365,28 +1364,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="93.75" x14ac:dyDescent="0.3">
@@ -1397,111 +1396,111 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="B16" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>174</v>
-      </c>
       <c r="B20" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1513,18 +1512,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83736C7-2185-4E5D-AF56-E8CDCB0D75AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1539,7 +1538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1547,26 +1546,26 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" t="s">
         <v>177</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>178</v>
       </c>
-      <c r="G3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>181</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>182</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1578,29 +1577,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3786704D-1555-444A-A1DC-C37E738B3EA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="25.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1611,33 +1610,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>3</v>
@@ -1652,23 +1651,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE43ABCD-2023-406B-AD62-EA271E578CE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.140625" defaultRowHeight="51" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="51" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>78</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
-    <row r="2" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1679,7 +1678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>66</v>
       </c>
@@ -1690,7 +1689,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>75</v>
       </c>
@@ -1701,7 +1700,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>76</v>
       </c>
@@ -1712,18 +1711,18 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>77</v>
       </c>
@@ -1734,20 +1733,20 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>4</v>
@@ -1756,23 +1755,23 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1786,26 +1785,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BDC336E-0409-48E5-8400-9A2721F50EFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="41.140625" customWidth="1"/>
+    <col min="3" max="3" width="41.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -1816,7 +1815,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
@@ -1824,45 +1823,45 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>100</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>0</v>
@@ -1871,7 +1870,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -1879,21 +1878,21 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1901,10 +1900,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
@@ -1912,63 +1911,63 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="B15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
@@ -1976,40 +1975,40 @@
         <v>0</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2021,26 +2020,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC595B4E-9EE4-490D-914F-F81CBCDFF0F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="39.6640625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="39.7109375" style="4"/>
+    <col min="1" max="16384" width="39.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -2051,7 +2050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
@@ -2059,10 +2058,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
@@ -2070,54 +2069,54 @@
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
@@ -2125,10 +2124,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="54" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>22</v>
       </c>
@@ -2139,7 +2138,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -2147,45 +2146,45 @@
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="54" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>4</v>
@@ -2201,26 +2200,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F89DE2-96CB-4056-85E8-2C1AE44181D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="21.140625" style="2"/>
+    <col min="1" max="16384" width="21.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -2231,7 +2230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="43.8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
@@ -2239,12 +2238,12 @@
         <v>4</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>4</v>
@@ -2253,9 +2252,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="54" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>4</v>
@@ -2264,53 +2263,53 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="54" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>4</v>
@@ -2328,23 +2327,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2172B2B3-56C5-478D-BE3C-928F353B7688}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -2355,7 +2354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -2363,7 +2362,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>34</v>
       </c>
@@ -2374,7 +2373,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -2385,7 +2384,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -2396,9 +2395,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="54" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
@@ -2407,9 +2406,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="54" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>3</v>
@@ -2418,7 +2417,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>

--- a/documentation/SKAZ_DB_maps.xlsx
+++ b/documentation/SKAZ_DB_maps.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\AA1\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/06f113a1f573cf4f/Documents/GitHub/AA1/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_58755DF22B36B9DB2FEA50A777B9466527A26DF6" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{509FA37A-29F0-4058-B332-99FDEE4E7BBD}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2556" windowWidth="11820" windowHeight="10296"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master_stories" sheetId="1" r:id="rId1"/>
@@ -27,12 +28,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -67,9 +62,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>story_ID</t>
-  </si>
-  <si>
     <t>author_paid</t>
   </si>
   <si>
@@ -208,9 +200,6 @@
     <t>storage_size</t>
   </si>
   <si>
-    <t xml:space="preserve">Range of how long each will take to complete </t>
-  </si>
-  <si>
     <t>Number of locations in the story</t>
   </si>
   <si>
@@ -233,9 +222,6 @@
   </si>
   <si>
     <t>Language of the story</t>
-  </si>
-  <si>
-    <t>Storage size of the story</t>
   </si>
   <si>
     <t>user_id</t>
@@ -591,12 +577,21 @@
   </si>
   <si>
     <t>story_in_store</t>
+  </si>
+  <si>
+    <t>DECIMAL(2,2)</t>
+  </si>
+  <si>
+    <t>Average length to complete in hours</t>
+  </si>
+  <si>
+    <t>Storage size of the story in mb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1072,34 +1067,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="39.109375" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="25.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
     </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1110,204 +1105,204 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B8" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="36" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>3</v>
@@ -1323,29 +1318,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="38.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1356,151 +1351,151 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="B11" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="B12" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="B16" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1512,18 +1507,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1538,34 +1533,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>177</v>
       </c>
-      <c r="G3" t="s">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>181</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1577,29 +1572,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="25.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1610,33 +1605,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>3</v>
@@ -1651,23 +1646,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="51" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="28.140625" defaultRowHeight="51" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
-    <row r="2" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1678,100 +1673,100 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1785,230 +1780,230 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="24.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="41.109375" customWidth="1"/>
+    <col min="3" max="3" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:3" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2020,26 +2015,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.6640625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="39.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="39.6640625" style="4"/>
+    <col min="1" max="16384" width="39.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -2050,141 +2045,141 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="54" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="54" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>4</v>
@@ -2200,26 +2195,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="21.109375" style="2"/>
+    <col min="1" max="16384" width="21.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -2230,92 +2225,92 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="43.8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="36" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="54" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B8" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="36" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="36" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="54" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2327,23 +2322,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -2354,26 +2349,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -2381,43 +2376,43 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="54" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="54" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>

--- a/documentation/SKAZ_DB_maps.xlsx
+++ b/documentation/SKAZ_DB_maps.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/06f113a1f573cf4f/Documents/GitHub/AA1/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\AA1\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_58755DF22B36B9DB2FEA50A777B9466527A26DF6" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{509FA37A-29F0-4058-B332-99FDEE4E7BBD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="master_stories" sheetId="1" r:id="rId1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="184">
   <si>
     <t>String</t>
   </si>
@@ -59,9 +58,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>author_paid</t>
   </si>
   <si>
@@ -393,9 +389,6 @@
   </si>
   <si>
     <t>event_location_id</t>
-  </si>
-  <si>
-    <t>is_global</t>
   </si>
   <si>
     <t>can_pickup_obj</t>
@@ -586,12 +579,21 @@
   </si>
   <si>
     <t>Storage size of the story in mb</t>
+  </si>
+  <si>
+    <t>event_name</t>
+  </si>
+  <si>
+    <t>event_description</t>
+  </si>
+  <si>
+    <t>event_is_global</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1067,34 +1069,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="25.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="39.109375" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1105,196 +1107,196 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>3</v>
@@ -1302,7 +1304,7 @@
     </row>
     <row r="22" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>3</v>
@@ -1318,29 +1320,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="38.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1351,151 +1353,151 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="B5" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="B11" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="B14" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="B15" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1507,18 +1509,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1533,34 +1535,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" t="s">
         <v>173</v>
       </c>
-      <c r="F3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>177</v>
-      </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1572,29 +1574,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="25.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1605,33 +1607,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>3</v>
@@ -1646,23 +1648,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.140625" defaultRowHeight="51" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="51" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
-    <row r="2" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1673,100 +1675,100 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1780,230 +1782,230 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="41.140625" customWidth="1"/>
+    <col min="3" max="3" width="41.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>96</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="9" t="s">
+    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2015,26 +2017,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="39.6640625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="39.7109375" style="4"/>
+    <col min="1" max="16384" width="39.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -2045,141 +2047,141 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="54" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="54" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="4" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>4</v>
@@ -2195,26 +2197,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="21.140625" style="2"/>
+    <col min="1" max="16384" width="21.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -2225,92 +2227,92 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="43.8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="54" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="54" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B9" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2322,23 +2324,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -2349,70 +2351,70 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="54" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="54" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>120</v>
+        <v>183</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>

--- a/documentation/SKAZ_DB_maps.xlsx
+++ b/documentation/SKAZ_DB_maps.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="master_stories" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="185">
   <si>
     <t>String</t>
   </si>
@@ -588,6 +588,9 @@
   </si>
   <si>
     <t>event_is_global</t>
+  </si>
+  <si>
+    <t>location_event_id</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1076,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1084,19 +1087,19 @@
     <col min="4" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
     </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1107,7 +1110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>71</v>
       </c>
@@ -1118,7 +1121,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>82</v>
       </c>
@@ -1129,7 +1132,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>83</v>
       </c>
@@ -1140,7 +1143,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
@@ -1151,7 +1154,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>84</v>
       </c>
@@ -1162,7 +1165,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -1173,7 +1176,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>80</v>
       </c>
@@ -1184,7 +1187,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>40</v>
       </c>
@@ -1195,7 +1198,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>44</v>
       </c>
@@ -1206,7 +1209,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
@@ -1217,7 +1220,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>177</v>
       </c>
@@ -1228,7 +1231,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>86</v>
       </c>
@@ -1239,7 +1242,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>42</v>
       </c>
@@ -1250,7 +1253,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>85</v>
       </c>
@@ -1261,7 +1264,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>45</v>
       </c>
@@ -1272,7 +1275,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>174</v>
       </c>
@@ -1283,7 +1286,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>53</v>
       </c>
@@ -1294,7 +1297,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>120</v>
       </c>
@@ -1302,7 +1305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>121</v>
       </c>
@@ -1335,14 +1338,14 @@
     <col min="4" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>69</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1353,7 +1356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>62</v>
       </c>
@@ -1361,7 +1364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>63</v>
       </c>
@@ -1369,7 +1372,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>64</v>
       </c>
@@ -1377,7 +1380,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>128</v>
       </c>
@@ -1385,7 +1388,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="90" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>65</v>
       </c>
@@ -1396,7 +1399,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>170</v>
       </c>
@@ -1404,7 +1407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>66</v>
       </c>
@@ -1412,7 +1415,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>67</v>
       </c>
@@ -1420,7 +1423,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>68</v>
       </c>
@@ -1428,7 +1431,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>70</v>
       </c>
@@ -1436,7 +1439,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>127</v>
       </c>
@@ -1444,7 +1447,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>129</v>
       </c>
@@ -1452,7 +1455,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>131</v>
       </c>
@@ -1460,7 +1463,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>130</v>
       </c>
@@ -1468,7 +1471,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>132</v>
       </c>
@@ -1476,7 +1479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>137</v>
       </c>
@@ -1484,7 +1487,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>167</v>
       </c>
@@ -1492,7 +1495,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>168</v>
       </c>
@@ -2020,8 +2023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.6640625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -2115,7 +2118,7 @@
     </row>
     <row r="9" spans="1:3" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>32</v>
+        <v>184</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>4</v>
@@ -2201,7 +2204,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2327,8 +2330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/documentation/SKAZ_DB_maps.xlsx
+++ b/documentation/SKAZ_DB_maps.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27996" windowHeight="13320" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="master_stories" sheetId="1" r:id="rId1"/>
@@ -2023,8 +2023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.6640625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -2204,7 +2204,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2330,8 +2330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/documentation/SKAZ_DB_maps.xlsx
+++ b/documentation/SKAZ_DB_maps.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\AA1\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/06f113a1f573cf4f/Documents/GitHub/AA1/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_E84B2F04175F44141C00BD0AB2F43A1E885445E4" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{656A8741-F47C-4218-90EB-9D0EAB22A347}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27996" windowHeight="13320" activeTab="8"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master_stories" sheetId="1" r:id="rId1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="186">
   <si>
     <t>String</t>
   </si>
@@ -353,9 +354,6 @@
   </si>
   <si>
     <t>show_object_ID</t>
-  </si>
-  <si>
-    <t>locked_event_ID</t>
   </si>
   <si>
     <t>unlock_object_ID</t>
@@ -591,12 +589,18 @@
   </si>
   <si>
     <t>location_event_id</t>
+  </si>
+  <si>
+    <t>unlock_event_ID</t>
+  </si>
+  <si>
+    <t>The ID of the event that unlocks this decision</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1072,34 +1076,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="39.109375" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="25.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1110,7 +1114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>71</v>
       </c>
@@ -1121,73 +1125,73 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>40</v>
       </c>
@@ -1195,10 +1199,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>44</v>
       </c>
@@ -1209,7 +1213,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
@@ -1220,9 +1224,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>3</v>
@@ -1231,7 +1235,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>86</v>
       </c>
@@ -1242,7 +1246,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>42</v>
       </c>
@@ -1253,7 +1257,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>85</v>
       </c>
@@ -1264,7 +1268,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>45</v>
       </c>
@@ -1275,9 +1279,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>4</v>
@@ -1286,7 +1290,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>53</v>
       </c>
@@ -1294,20 +1298,20 @@
         <v>2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>3</v>
@@ -1323,29 +1327,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="38.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>69</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1356,7 +1360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>62</v>
       </c>
@@ -1364,31 +1368,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="90" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>65</v>
       </c>
@@ -1396,111 +1400,111 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="B16" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="B20" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1512,18 +1516,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1538,7 +1542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1546,26 +1550,26 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" t="s">
         <v>171</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>172</v>
       </c>
-      <c r="G3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>175</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>176</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1577,29 +1581,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="25.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1610,33 +1614,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>3</v>
@@ -1651,23 +1655,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="51" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="28.140625" defaultRowHeight="51" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>74</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
-    <row r="2" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1678,7 +1682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>62</v>
       </c>
@@ -1689,7 +1693,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>71</v>
       </c>
@@ -1700,7 +1704,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>72</v>
       </c>
@@ -1711,18 +1715,18 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>73</v>
       </c>
@@ -1733,20 +1737,20 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>4</v>
@@ -1755,23 +1759,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1785,26 +1789,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="24.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="41.109375" customWidth="1"/>
+    <col min="3" max="3" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -1815,7 +1819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>71</v>
       </c>
@@ -1826,7 +1830,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>96</v>
       </c>
@@ -1837,7 +1841,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>97</v>
       </c>
@@ -1848,7 +1852,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>94</v>
       </c>
@@ -1856,10 +1860,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>95</v>
       </c>
@@ -1870,7 +1874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -1878,10 +1882,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>103</v>
       </c>
@@ -1892,7 +1896,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -1900,10 +1904,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1911,10 +1915,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>101</v>
       </c>
@@ -1922,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>105</v>
       </c>
@@ -1933,10 +1937,10 @@
         <v>15</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>106</v>
       </c>
@@ -1944,30 +1948,32 @@
         <v>4</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
@@ -1975,10 +1981,10 @@
         <v>0</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>102</v>
       </c>
@@ -1986,29 +1992,29 @@
         <v>0</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2020,26 +2026,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.6640625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="39.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="39.6640625" style="4"/>
+    <col min="1" max="16384" width="39.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -2050,7 +2056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>71</v>
       </c>
@@ -2058,10 +2064,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>19</v>
       </c>
@@ -2069,10 +2075,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>87</v>
       </c>
@@ -2080,10 +2086,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>92</v>
       </c>
@@ -2091,10 +2097,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>91</v>
       </c>
@@ -2102,10 +2108,10 @@
         <v>0</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>90</v>
       </c>
@@ -2113,21 +2119,21 @@
         <v>0</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="54" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>20</v>
       </c>
@@ -2138,7 +2144,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
@@ -2146,10 +2152,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="54" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>93</v>
       </c>
@@ -2157,10 +2163,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>88</v>
       </c>
@@ -2168,10 +2174,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>89</v>
       </c>
@@ -2179,12 +2185,12 @@
         <v>43</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>4</v>
@@ -2200,26 +2206,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="21.109375" style="2"/>
+    <col min="1" max="16384" width="21.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -2230,7 +2236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="43.8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>71</v>
       </c>
@@ -2238,12 +2244,12 @@
         <v>4</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>4</v>
@@ -2252,9 +2258,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="54" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>4</v>
@@ -2263,53 +2269,53 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="54" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>4</v>
@@ -2327,23 +2333,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -2354,7 +2360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -2362,7 +2368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>32</v>
       </c>
@@ -2373,9 +2379,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>0</v>
@@ -2384,9 +2390,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
@@ -2395,9 +2401,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="54" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
@@ -2406,9 +2412,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="54" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>3</v>
@@ -2417,7 +2423,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
